--- a/datos/base_bandera_crudo.xlsx
+++ b/datos/base_bandera_crudo.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,831 +394,1107 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Argentina (ARG)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ARG</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Argelia</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Australia (AUS)</t>
+          <t>Argentina (ARG)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Austria (AUT)</t>
+          <t>Armenia (ARM)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>ARM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Armenia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Azerbaiyán (AZE)</t>
+          <t>Australia (AUS)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Azerbaiyán</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brasil (BRA)</t>
+          <t>Austria (AUT)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bélgica (BEL)</t>
+          <t>Azerbaiyán (AZE)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AZE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Azerbaiyán</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Canadá (CAN)</t>
+          <t>Brasil (BRA)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Brasil</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>China (CHN)</t>
+          <t>Bélgica (BEL)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Bélgica</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Corea del Norte (PRK)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PRK</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Corea del Norte</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Corea del Sur (KOR)</t>
+          <t>Canadá (CAN)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Corea del Sur</t>
+          <t>Canadá</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Croacia (CRO)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CRO</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Croacia</t>
+          <t>Chile</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ecuador (ECU)</t>
+          <t>China (CHN)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egipto (EGY)</t>
+          <t>Corea del Norte (PRK)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>PRK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Corea del Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Eslovaquia (SVK)</t>
+          <t>Corea del Sur (KOR)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eslovaquia</t>
+          <t>Corea del Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eslovenia (SLO)</t>
+          <t>Croacia (CRO)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SLO</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eslovenia</t>
+          <t>Croacia</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>España (ESP)</t>
+          <t>Cuba (CUB)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Cuba</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Estados Unidos (USA)</t>
+          <t>Dinamarca (DEN)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Dinamarca</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fiyi (FIY)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FIY</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fiyi</t>
+          <t>Dominica</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Francia (FRA)</t>
+          <t>Ecuador (ECU)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>Ecuador</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Georgia (GEO)</t>
+          <t>Egipto (EGY)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>EGY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Egipto</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Grecia (GRE)</t>
+          <t>Eslovaquia (SVK)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GRE</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Eslovaquia</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Guatemala (GUA)</t>
+          <t>Eslovenia (SLO)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Eslovenia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hong Kong (HKG)</t>
+          <t>España (ESP)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>España</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hungría (HUN)</t>
+          <t>Estados Unidos (USA)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hungría</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>India (IND)</t>
+          <t>Etiopía (ETH)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Etiopía</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Irlanda (IRL)</t>
+          <t>Filipinas (PHI)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Irlanda</t>
+          <t>Filipinas</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Israel (ISR)</t>
+          <t>Fiyi (FIY)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>FIY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Fiyi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italia (ITA)</t>
+          <t>Francia (FRA)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Francia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Japón (JPN)</t>
+          <t>Georgia (GEO)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Georgia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kazajistán (KAZ)</t>
+          <t>Grecia (GRE)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>GRE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kazajistán</t>
+          <t>Grecia</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kosovo (KOS)</t>
+          <t>Guatemala (GUA)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Guatemala</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Moldavia (MDA)</t>
+          <t>Hong Kong (HKG)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Moldavia</t>
+          <t>Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mongolia (MGL)</t>
+          <t>Hungría (HUN)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MGL</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Hungría</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>México (MEX)</t>
+          <t>India (IND)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nueva Zelanda (NZL)</t>
+          <t>Indonesia (INA)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>INA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nueva Zelanda</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Países Bajos (NED)</t>
+          <t>Irlanda (IRL)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NED</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Países Bajos</t>
+          <t>Irlanda</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Polonia (POL)</t>
+          <t>Israel (ISR)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>ISR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Israel</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Portugal (POR)</t>
+          <t>Italia (ITA)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italia</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Reino Unido (GBR)</t>
+          <t>Jamaica (JAM)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t>Jamaica</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Rumania (ROU)</t>
+          <t>Japón (JPN)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rumania</t>
+          <t>Japón</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Serbia (SRB)</t>
+          <t>Kazajistán (KAZ)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Kazajistán</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sudáfrica (RSA)</t>
+          <t>Kosovo (KOS)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RSA</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>Kosovo</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Suecia (SWE)</t>
+          <t>Lituania (LTU)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Suecia</t>
+          <t>Lituania</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Suiza (SUI)</t>
+          <t>Malasia (MAL)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>MAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Suiza</t>
+          <t>Malasia</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tayikistán (TJK)</t>
+          <t>Moldavia (MDA)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tayikistán</t>
+          <t>Moldavia</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Turquía (TUR)</t>
+          <t>Mongolia (MGL)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>MGL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Turquía</t>
+          <t>Mongolia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Túnez (TUN)</t>
+          <t>México (MEX)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>México</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ucrania (UKR)</t>
+          <t>Nueva Zelanda (NZL)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ucrania</t>
+          <t>Nueva Zelanda</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Países Bajos (NED)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Países Bajos</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Polonia (POL)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Portugal (POR)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Reino Unido (GBR)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Reino Unido</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>República Checa (CZE)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CZE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>República Checa</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>República Dominicana (DOM)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DOM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>República Dominicana</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rumania (ROU)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rumania</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Santa Lucía</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Santa Lucía</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Serbia (SRB)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sudáfrica (RSA)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RSA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sudáfrica</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Suecia (SWE)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Suiza (SUI)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SUI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Suiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Taiwán</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Taiwán</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tayikistán (TJK)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tayikistán</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Turquía (TUR)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Turquía</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Túnez (TUN)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Túnez</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ucrania (UKR)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ucrania</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Uganda (UGA)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>Uzbekistán (UZB)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>UZB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Uzbekistán</t>
         </is>
